--- a/comfandi2.xlsx
+++ b/comfandi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\api_maestria_colegios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A53196-93B4-408E-8268-D460D4842297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EB3ED-02A1-4351-8D1D-1234A7E0C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/comfandi2.xlsx
+++ b/comfandi2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\api_maestria_colegios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3EB3ED-02A1-4351-8D1D-1234A7E0C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77BFEE5-0E02-4810-BD34-3AF4DA21799C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:T1500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93630,6 +93630,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T1500" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>